--- a/DB design schema.xlsx
+++ b/DB design schema.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\pcmc-app-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pcmc\node-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E5768-B40F-4684-BA52-C685FEB002B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,23 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="135">
   <si>
     <t>Roles</t>
   </si>
   <si>
-    <t>Support Staff</t>
-  </si>
-  <si>
-    <t>Agency Manager</t>
-  </si>
-  <si>
-    <t>Agency Coordinators</t>
-  </si>
-  <si>
-    <t>Donor</t>
-  </si>
-  <si>
     <t>System Administrator</t>
   </si>
   <si>
@@ -51,12 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>phone_number:</t>
-  </si>
-  <si>
-    <t>other_contact:</t>
-  </si>
-  <si>
     <t>nullable</t>
   </si>
   <si>
@@ -75,9 +58,6 @@
     <t>zip_code</t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -90,30 +70,12 @@
     <t>last_name</t>
   </si>
   <si>
-    <t>agency account manager</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>MBD Team</t>
-  </si>
-  <si>
-    <t>Agency account manager</t>
-  </si>
-  <si>
-    <t>Agency assigned coordinators</t>
-  </si>
-  <si>
-    <t>Can be a part of agency or not</t>
-  </si>
-  <si>
     <t>Coordinators</t>
   </si>
   <si>
-    <t>First</t>
-  </si>
-  <si>
     <t>{</t>
   </si>
   <si>
@@ -229,12 +191,252 @@
   </si>
   <si>
     <t xml:space="preserve">  "password":"password123"</t>
+  </si>
+  <si>
+    <t>contact_number</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>head_id</t>
+  </si>
+  <si>
+    <t>foreign key to users tbl</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>role_name</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>updatedAt</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Admin Support</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Agency Head</t>
+  </si>
+  <si>
+    <t>Donors</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>photo_id</t>
+  </si>
+  <si>
+    <t>references to files tbl</t>
+  </si>
+  <si>
+    <t>references to roles tbl</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>createAt</t>
+  </si>
+  <si>
+    <t>updateAt</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>organization_type</t>
+  </si>
+  <si>
+    <t>[business, media, government, church, education, healthcare]</t>
+  </si>
+  <si>
+    <t>agency_email</t>
+  </si>
+  <si>
+    <t>file_id</t>
+  </si>
+  <si>
+    <t>foreign key to files tbl</t>
+  </si>
+  <si>
+    <t>default philippines</t>
+  </si>
+  <si>
+    <t>[for approval, rejected, approved] default 'for approval'</t>
+  </si>
+  <si>
+    <t>agency_id</t>
+  </si>
+  <si>
+    <t>agency_coordinators</t>
+  </si>
+  <si>
+    <t>[for approval, active, deactivated] default for approval</t>
+  </si>
+  <si>
+    <t>donors</t>
+  </si>
+  <si>
+    <t>blood_type_id</t>
+  </si>
+  <si>
+    <t>references to agencies | nullable</t>
+  </si>
+  <si>
+    <t>references to users</t>
+  </si>
+  <si>
+    <t>references to blood_types</t>
+  </si>
+  <si>
+    <t>is_verified</t>
+  </si>
+  <si>
+    <t>brgy</t>
+  </si>
+  <si>
+    <t>civil_status</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>is_regular_donor</t>
+  </si>
+  <si>
+    <t>default false</t>
+  </si>
+  <si>
+    <t>verified_by</t>
+  </si>
+  <si>
+    <t>references to user_id</t>
+  </si>
+  <si>
+    <t>member_donor_id</t>
+  </si>
+  <si>
+    <t>YYYYMMDD####</t>
+  </si>
+  <si>
+    <t>medical_history</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>medical_history_file_id</t>
+  </si>
+  <si>
+    <t>blood_donation_events</t>
+  </si>
+  <si>
+    <t>requester_id</t>
+  </si>
+  <si>
+    <t>location_id/agency_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>[scheduled, for approval, cancelled]</t>
+  </si>
+  <si>
+    <t>booking_schedules</t>
+  </si>
+  <si>
+    <t>blood_donation_events_id</t>
+  </si>
+  <si>
+    <t>references to blood_donation_events</t>
+  </si>
+  <si>
+    <t>time_start</t>
+  </si>
+  <si>
+    <t>time_end</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>max_limit</t>
+  </si>
+  <si>
+    <t>donor_appointment_info</t>
+  </si>
+  <si>
+    <t>donor_id</t>
+  </si>
+  <si>
+    <t>references to donors tbl</t>
+  </si>
+  <si>
+    <t>donor_type</t>
+  </si>
+  <si>
+    <t>[replacement, volunteer]</t>
+  </si>
+  <si>
+    <t>patient_name</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>collection_method</t>
+  </si>
+  <si>
+    <t>[whole blood, apheresis]</t>
+  </si>
+  <si>
+    <t>[pending,confirmed, cancelled, completed, rejected]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,14 +499,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,159 +787,590 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E13:E14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:A41"/>
     </sheetView>
   </sheetViews>
@@ -744,202 +1378,202 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/DB design schema.xlsx
+++ b/DB design schema.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pcmc\node-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\pcmc-app-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E5768-B40F-4684-BA52-C685FEB002B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="161">
   <si>
     <t>Roles</t>
   </si>
@@ -431,13 +430,91 @@
   </si>
   <si>
     <t>[pending,confirmed, cancelled, completed, rejected]</t>
+  </si>
+  <si>
+    <t>booking_schedule_id</t>
+  </si>
+  <si>
+    <t>references to booking_schedules</t>
+  </si>
+  <si>
+    <t>audit_trails</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>is_error</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>controller method</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>ip_address</t>
+  </si>
+  <si>
+    <t>user_agent</t>
+  </si>
+  <si>
+    <t>stack_trace</t>
+  </si>
+  <si>
+    <t>req.headers["user-agent"],</t>
+  </si>
+  <si>
+    <t>error.stack</t>
+  </si>
+  <si>
+    <t>req.ip</t>
+  </si>
+  <si>
+    <t>notifications</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>is_read</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>email_notifications</t>
+  </si>
+  <si>
+    <t>recipients</t>
+  </si>
+  <si>
+    <t>array | json</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +555,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0098DF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -499,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -508,6 +592,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,11 +874,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,10 +1396,10 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1355,9 +1442,166 @@
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>57</v>
+      </c>
+      <c r="B101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1367,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
